--- a/parameterization/password.xlsx
+++ b/parameterization/password.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730" activeTab="1"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>name</t>
   </si>
@@ -48,22 +48,16 @@
     <t>css</t>
   </si>
   <si>
-    <t>.user-name</t>
-  </si>
-  <si>
-    <t>刘鑫</t>
+    <t>#app &gt; div &gt; div.sidebar-wrapper &gt; ul &gt; div &gt; a.router-link-exact-active.router-link-active &gt; li</t>
+  </si>
+  <si>
+    <t>产品列表</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>1111</t>
-  </si>
-  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>测试产品</t>
   </si>
   <si>
     <t>business</t>
@@ -96,8 +90,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -116,6 +110,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -123,69 +161,64 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,62 +231,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,37 +262,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,19 +394,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,121 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,16 +456,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -495,41 +498,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,6 +529,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -567,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,37 +573,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,94 +609,97 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,15 +1063,16 @@
   <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.6272727272727"/>
     <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="4" max="4" width="15.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="67.8181818181818" customWidth="1"/>
     <col min="6" max="6" width="20.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1138,7 +1133,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1149,7 +1144,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -1158,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1293,7 +1288,7 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1309,19 +1304,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1329,16 +1324,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1346,16 +1341,16 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/parameterization/password.xlsx
+++ b/parameterization/password.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="18540" windowHeight="7730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>name</t>
   </si>
@@ -61,27 +61,6 @@
   </si>
   <si>
     <t>business</t>
-  </si>
-  <si>
-    <t>type_one</t>
-  </si>
-  <si>
-    <t>selector_one</t>
-  </si>
-  <si>
-    <t>type_two</t>
-  </si>
-  <si>
-    <t>selector_two</t>
-  </si>
-  <si>
-    <t>class name</t>
-  </si>
-  <si>
-    <t>el-table_3_column_16</t>
-  </si>
-  <si>
-    <t>el-table__empty-text</t>
   </si>
 </sst>
 </file>
@@ -89,10 +68,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -109,6 +88,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -117,7 +111,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,6 +162,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -139,22 +177,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,14 +201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -183,8 +208,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,15 +218,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,46 +226,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,37 +241,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,13 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,127 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,6 +432,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,21 +498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -515,21 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -544,15 +532,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -561,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,19 +552,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,112 +573,112 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,8 +1042,8 @@
   <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1288,8 +1267,8 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1302,56 +1281,28 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/parameterization/password.xlsx
+++ b/parameterization/password.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="7730" activeTab="1"/>
+    <workbookView windowWidth="18540" windowHeight="7730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>name</t>
   </si>
@@ -61,6 +61,36 @@
   </si>
   <si>
     <t>business</t>
+  </si>
+  <si>
+    <t>type_report</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>日报</t>
+  </si>
+  <si>
+    <t>周报</t>
+  </si>
+  <si>
+    <t>月报</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>季报</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>年报</t>
   </si>
 </sst>
 </file>
@@ -69,8 +99,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -88,21 +118,43 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -111,14 +163,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,6 +185,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -147,31 +207,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,37 +261,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,187 +271,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,16 +466,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,24 +515,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,17 +529,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,6 +547,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1267,7 +1297,7 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1290,18 +1320,12 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
       <c r="E3" s="2"/>
     </row>
   </sheetData>
@@ -1314,14 +1338,86 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="28" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/parameterization/password.xlsx
+++ b/parameterization/password.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="7730" activeTab="2"/>
+    <workbookView windowWidth="18540" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <t>result</t>
   </si>
   <si>
-    <t>15822816936</t>
+    <t>17600661017</t>
   </si>
   <si>
     <t>abc123456</t>
@@ -100,8 +100,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -118,16 +118,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,28 +151,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,80 +224,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -271,187 +271,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,74 +462,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -562,6 +494,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,8 +1072,8 @@
   <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1340,7 +1340,7 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
